--- a/biology/Zoologie/Chlorops/Chlorops.xlsx
+++ b/biology/Zoologie/Chlorops/Chlorops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorops est un genre d'insectes diptères brachycères de la famille des Chloropidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 août 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2013) :
 Chlorops adamsi
 Chlorops adjunctus
 Chlorops adpropinquus
@@ -784,7 +798,7 @@
 Chlorops zernyi
 Chlorops zeylanicus
 Chlorops zonulatus
-Selon ITIS      (8 août 2013)[2] :
+Selon ITIS      (8 août 2013) :
 Chlorops adamsi Sabrosky, 1935
 Chlorops brunnipennis Becker, 1912
 Chlorops certimus Adams, 1904
@@ -821,10 +835,10 @@
 Chlorops tarsalis Becker, 1912
 Chlorops testaceus Macquart, 1851
 Chlorops unicornis Giglio-tos, 1893
-Selon NCBI  (8 août 2013)[3] :
+Selon NCBI  (8 août 2013) :
 Chlorops oryzae
 Chlorops sahlbergii
-Selon World Register of Marine Species                               (8 août 2013)[4] :
+Selon World Register of Marine Species                               (8 août 2013) :
 Chlorops hypostigma Meigen, 1830</t>
         </is>
       </c>
